--- a/biology/Botanique/Dioscorea_trifida/Dioscorea_trifida.xlsx
+++ b/biology/Botanique/Dioscorea_trifida/Dioscorea_trifida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioscorea trifida, l’igname cousse-couche, est une espèce de plantes à fleurs monocotylédones de la famille des Dioscoreaceae, originaire d'Amérique centrale et d'Amérique du Sud.
-L'igname cousse-couche est une plante herbacée dioïque, vivace, grimpante,  qui produit un tubercule souterrain comestible[2].
-Les feuilles alternes sont grandes, jusqu'à 25 cm de long,  au limbe  profondément  divisé en trois à sept segments pointus. Les fruits non comestibles sont des capsules à trois ailes, contenant une graine dans chaque aile[2].
+L'igname cousse-couche est une plante herbacée dioïque, vivace, grimpante,  qui produit un tubercule souterrain comestible.
+Les feuilles alternes sont grandes, jusqu'à 25 cm de long,  au limbe  profondément  divisé en trois à sept segments pointus. Les fruits non comestibles sont des capsules à trois ailes, contenant une graine dans chaque aile.
 </t>
         </is>
       </c>
@@ -513,11 +525,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par Carl von Linné le Jeune et publiée en 1782 dans Suppl. Pl[1].
-Synonymes
-Selon  Plants of the World online (POWO)                (23 janvier 2022)[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par Carl von Linné le Jeune et publiée en 1782 dans Suppl. Pl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dioscorea_trifida</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dioscorea_trifida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon  Plants of the World online (POWO)                (23 janvier 2022) : 
 Dioscorea affinis Kunth
 Dioscorea angustifolia Rusby
 Dioscorea articulata Steud.
